--- a/biology/Médecine/Jean-Jacques_Chifflet/Jean-Jacques_Chifflet.xlsx
+++ b/biology/Médecine/Jean-Jacques_Chifflet/Jean-Jacques_Chifflet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Jacques Chifflet, né à Besançon ville libre d'empire, en 1588 et mort le 20 avril 1673 à Bruxelles aux Pays-Bas espagnols[1], est un médecin, antiquaire et archéologue
-franc-comtois[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Jacques Chifflet, né à Besançon ville libre d'empire, en 1588 et mort le 20 avril 1673 à Bruxelles aux Pays-Bas espagnols, est un médecin, antiquaire et archéologue
+franc-comtois.
 Il est le frère de Philippe Chifflet et un neveu du jurisconsulte Claude Chifflet.
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Chifflet est, à Besançon, le médecin de Caroline d'Autriche, fille naturelle de Rodolphe II (empereur des Romains) et épouse de François Thomas Perrenot de Granvelle.
-Il visite Paris, Montpellier, voyage en Italie, en Allemagne ; il occupe à son retour les premières places dans sa ville natale, et est choisi pour médecin par le roi d'Espagne Philippe IV. Ses travaux sur la ville antique d'Epomanduodurum (l'actuelle Mandeure dans le (Doubs) permettent d'attirer l'attention sur ces vestiges[3].
-Il étudie le tombeau de Childéric Ier et publie Anastasis Childerici I. Francorum regis. Il s'intéresse à la fleur de lys et publie Lilium francicum veritate historica, botanica, et heraldica illustratrum. Il considère que l'abeille est le plus ancien symbole de la monarchie française[4].
+Il visite Paris, Montpellier, voyage en Italie, en Allemagne ; il occupe à son retour les premières places dans sa ville natale, et est choisi pour médecin par le roi d'Espagne Philippe IV. Ses travaux sur la ville antique d'Epomanduodurum (l'actuelle Mandeure dans le (Doubs) permettent d'attirer l'attention sur ces vestiges.
+Il étudie le tombeau de Childéric Ier et publie Anastasis Childerici I. Francorum regis. Il s'intéresse à la fleur de lys et publie Lilium francicum veritate historica, botanica, et heraldica illustratrum. Il considère que l'abeille est le plus ancien symbole de la monarchie française.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il eut deux fils : 
 Jules Chifflet, jurisconsulte et historien, auteur du Breviarium ordinis velleris aurei, Anvers, 1652 ;
@@ -578,10 +594,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On a de lui :
-Asitiae in puella helvetica mirabilis physica exetasis, Besançon, sans date, probablement 1607. Le titre signifie Examen médical d'une extraordinaire abstention d'aliments chez une jeune fille suisse. La jeune fille en question, une certaine Apollonia Skreier, était réputée jeûner depuis cinq ans[5].
+Asitiae in puella helvetica mirabilis physica exetasis, Besançon, sans date, probablement 1607. Le titre signifie Examen médical d'une extraordinaire abstention d'aliments chez une jeune fille suisse. La jeune fille en question, une certaine Apollonia Skreier, était réputée jeûner depuis cinq ans.
 Vesuntio, histoire de Besançon, Lyon, 1618 ;
 De linteis sepulcralibus Christi, Anvers 1624, in 4°. Sur les suaires de Jésus Christ
 Porlus lecius Julius Caesaris (il place ce port à Mardick), 1627 ;
